--- a/case 2/sos excel.xlsx
+++ b/case 2/sos excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -34,10 +34,22 @@
     <t xml:space="preserve"> Result </t>
   </si>
   <si>
-    <t>To find the sum of squares</t>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>positive integer</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>help command</t>
+  </si>
+  <si>
+    <t>argv[0] -h</t>
+  </si>
+  <si>
+    <t>Input:Integer</t>
   </si>
 </sst>
 </file>
@@ -387,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,10 +436,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -439,7 +451,47 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>-9</v>
+      </c>
+      <c r="D3">
+        <v>-204</v>
+      </c>
+      <c r="E3">
+        <v>-204</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/case 2/sos excel.xlsx
+++ b/case 2/sos excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Input:Integer</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +497,46 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>-30</v>
+      </c>
+      <c r="E5">
+        <v>-30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/case 2/sos excel.xlsx
+++ b/case 2/sos excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -52,7 +52,10 @@
     <t>Input:Integer</t>
   </si>
   <si>
-    <t>integer</t>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>enter positive number &gt; 0</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,8 +416,8 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -467,11 +470,11 @@
       <c r="C3">
         <v>-9</v>
       </c>
-      <c r="D3">
-        <v>-204</v>
-      </c>
-      <c r="E3">
-        <v>-204</v>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -502,38 +505,18 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>-5</v>
-      </c>
-      <c r="D5">
-        <v>-30</v>
-      </c>
-      <c r="E5">
-        <v>-30</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/case 2/sos excel.xlsx
+++ b/case 2/sos excel.xlsx
@@ -55,7 +55,7 @@
     <t>neutral</t>
   </si>
   <si>
-    <t>enter positive number &gt; 0</t>
+    <t xml:space="preserve">enter positive number </t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
